--- a/Experiments/Measurements/Single Banner Horizontal/Straight path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/Straight path/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>189.5537863168404</v>
+        <v>189.5537863168403</v>
       </c>
       <c r="H12" t="n">
-        <v>61.99258873718526</v>
+        <v>61.99258873718519</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>125.0511553948117</v>
+        <v>125.0511553948116</v>
       </c>
       <c r="H13" t="n">
-        <v>62.46186904264182</v>
+        <v>62.46186904264176</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>106.3477607413971</v>
+        <v>106.3477607413967</v>
       </c>
       <c r="H14" t="n">
-        <v>73.46022354964343</v>
+        <v>73.46022354964316</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>123.1163340722335</v>
+        <v>123.1163340722331</v>
       </c>
       <c r="H15" t="n">
-        <v>73.58773008335376</v>
+        <v>73.58773008335351</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>141.5864888587803</v>
+        <v>141.58648885878</v>
       </c>
       <c r="H16" t="n">
-        <v>73.66110780179434</v>
+        <v>73.66110780179407</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>130.6238226417485</v>
+        <v>130.6238226417481</v>
       </c>
       <c r="H17" t="n">
-        <v>73.56284818519808</v>
+        <v>73.56284818519782</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>179.0767448067151</v>
+        <v>179.0767448067152</v>
       </c>
       <c r="H18" t="n">
-        <v>61.88946175374045</v>
+        <v>61.88946175374058</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>166.2548427683576</v>
+        <v>166.2548427683577</v>
       </c>
       <c r="H19" t="n">
-        <v>61.73599642309031</v>
+        <v>61.73599642309043</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>159.2392245100119</v>
+        <v>159.2392245100123</v>
       </c>
       <c r="H24" t="n">
-        <v>61.78745726942342</v>
+        <v>61.78745726942368</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>89.52919276296164</v>
+        <v>89.52919276296146</v>
       </c>
       <c r="H29" t="n">
-        <v>73.92242426760531</v>
+        <v>73.92242426760518</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>113.6314041517841</v>
+        <v>113.6314041517839</v>
       </c>
       <c r="H30" t="n">
-        <v>73.70794270091044</v>
+        <v>73.70794270091031</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>106.2134976512724</v>
+        <v>106.2134976512721</v>
       </c>
       <c r="H32" t="n">
-        <v>73.83701685715195</v>
+        <v>73.83701685715175</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>156.5207417635757</v>
+        <v>156.5207417635754</v>
       </c>
       <c r="H34" t="n">
-        <v>73.72063368641722</v>
+        <v>73.72063368641702</v>
       </c>
     </row>
     <row r="35">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>114.3374163808853</v>
+        <v>114.3374163808851</v>
       </c>
       <c r="H35" t="n">
-        <v>62.26255057237073</v>
+        <v>62.26255057237059</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>113.2699192679538</v>
+        <v>113.2699192679536</v>
       </c>
       <c r="H36" t="n">
-        <v>61.97601393557093</v>
+        <v>61.9760139355708</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>135.729461012152</v>
+        <v>135.7294610121518</v>
       </c>
       <c r="H37" t="n">
-        <v>74.19992015461938</v>
+        <v>74.19992015461925</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>122.3700182747845</v>
+        <v>122.3700182747849</v>
       </c>
       <c r="H38" t="n">
-        <v>73.3063502910272</v>
+        <v>73.30635029102746</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>147.7421905145211</v>
+        <v>147.7421905145213</v>
       </c>
       <c r="H40" t="n">
-        <v>73.29441811184796</v>
+        <v>73.29441811184809</v>
       </c>
     </row>
     <row r="41">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>118.3094724083772</v>
+        <v>118.3094724083776</v>
       </c>
       <c r="H45" t="n">
-        <v>61.5414239901613</v>
+        <v>61.54142399016156</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>143.56230576878</v>
+        <v>143.5623057687802</v>
       </c>
       <c r="H46" t="n">
-        <v>61.65660855893628</v>
+        <v>61.65660855893641</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>129.1517800724201</v>
+        <v>129.1517800724205</v>
       </c>
       <c r="H47" t="n">
-        <v>73.58850832877526</v>
+        <v>73.58850832877553</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>75.5055875342659</v>
+        <v>75.50558753426571</v>
       </c>
       <c r="H48" t="n">
-        <v>60.35688819241042</v>
+        <v>60.35688819241029</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>119.1661908748644</v>
+        <v>119.1661908748642</v>
       </c>
       <c r="H50" t="n">
-        <v>61.29679497904401</v>
+        <v>61.29679497904388</v>
       </c>
     </row>
     <row r="51">
